--- a/PREGAME/2.PRIMERA ITERACION/G4_Backlog_V1.2.xlsx
+++ b/PREGAME/2.PRIMERA ITERACION/G4_Backlog_V1.2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paola\Documents\PaolaSangucho_9899_4G_MDSW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA18779-8ACF-4DA3-8179-6E49A5B21E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB5B03C-F2B8-443A-9F50-D7CDE89E7804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="86">
   <si>
     <t>ID</t>
   </si>
@@ -118,9 +118,6 @@
   </si>
   <si>
     <t>Alta</t>
-  </si>
-  <si>
-    <t>Terminado</t>
   </si>
   <si>
     <t>Auntenticacion</t>
@@ -682,12 +679,6 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -754,6 +745,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -947,16 +944,16 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1459,7 +1456,7 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="H2" sqref="H2:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1480,22 +1477,22 @@
       <c r="B1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="47" t="s">
+      <c r="H1" s="45" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1503,156 +1500,156 @@
       <c r="A2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="48" t="s">
+      <c r="F2" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="49" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="43" t="s">
+      <c r="G2" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="49" t="s">
-        <v>26</v>
+      <c r="H2" s="47" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="C3" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="50" t="s">
+      <c r="E3" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="53" t="s">
         <v>41</v>
-      </c>
-      <c r="E3" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="50" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="C4" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="54" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="51" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="59" t="s">
-        <v>82</v>
-      </c>
-      <c r="F4" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="58" t="s">
+      <c r="E4" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="50" t="s">
-        <v>42</v>
+      <c r="H4" s="53" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="52" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="54" t="s">
+      <c r="A5" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="52" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="F5" s="57" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="54" t="s">
+      <c r="D5" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="50" t="s">
-        <v>42</v>
+      <c r="H5" s="53" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="52" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="54" t="s">
+      <c r="A6" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="52" t="s">
+      <c r="D6" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" s="57" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="54" t="s">
+      <c r="F6" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="50" t="s">
-        <v>42</v>
+      <c r="H6" s="53" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="52" t="s">
+      <c r="A7" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="54" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="52" t="s">
+      <c r="E7" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" s="57" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="54" t="s">
+      <c r="F7" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="50" t="s">
-        <v>42</v>
+      <c r="H7" s="53" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2670,8 +2667,8 @@
   </sheetPr>
   <dimension ref="B1:I1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:F18"/>
+    <sheetView topLeftCell="A7" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2714,25 +2711,25 @@
         <v>7</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4" s="21" t="s">
         <v>24</v>
       </c>
       <c r="E4" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" s="21" t="s">
         <v>32</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>33</v>
       </c>
       <c r="H4" s="21" t="s">
         <v>25</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="2:9" s="24" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2753,16 +2750,16 @@
     </row>
     <row r="6" spans="2:9" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
+        <v>36</v>
+      </c>
+      <c r="C6" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
       <c r="G6" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H6" s="15"/>
       <c r="I6" s="22">
@@ -2771,16 +2768,16 @@
     </row>
     <row r="7" spans="2:9" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="15" t="s">
         <v>35</v>
-      </c>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="15" t="s">
-        <v>36</v>
       </c>
       <c r="H7" s="15"/>
       <c r="I7" s="22">
@@ -2823,28 +2820,28 @@
     </row>
     <row r="10" spans="2:9" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="37" t="s">
         <v>39</v>
-      </c>
-      <c r="C10" s="39" t="s">
-        <v>40</v>
       </c>
       <c r="D10" s="21" t="s">
         <v>24</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H10" s="21" t="s">
         <v>25</v>
       </c>
       <c r="I10" s="21" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="2:9" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2865,16 +2862,16 @@
     </row>
     <row r="12" spans="2:9" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
+        <v>57</v>
+      </c>
+      <c r="C12" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
       <c r="G12" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H12" s="15"/>
       <c r="I12" s="22">
@@ -2883,16 +2880,16 @@
     </row>
     <row r="13" spans="2:9" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
+        <v>57</v>
+      </c>
+      <c r="C13" s="65" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
       <c r="G13" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H13" s="15"/>
       <c r="I13" s="22">
@@ -2935,28 +2932,28 @@
     </row>
     <row r="16" spans="2:9" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="39" t="s">
         <v>43</v>
-      </c>
-      <c r="C16" s="41" t="s">
-        <v>44</v>
       </c>
       <c r="D16" s="21" t="s">
         <v>24</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="F16" s="59" t="s">
-        <v>80</v>
+        <v>72</v>
+      </c>
+      <c r="F16" s="57" t="s">
+        <v>79</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H16" s="21" t="s">
         <v>25</v>
       </c>
       <c r="I16" s="21" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="2:9" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2977,16 +2974,16 @@
     </row>
     <row r="18" spans="2:9" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
+        <v>58</v>
+      </c>
+      <c r="C18" s="65" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
       <c r="G18" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H18" s="15"/>
       <c r="I18" s="22">
@@ -2995,16 +2992,16 @@
     </row>
     <row r="19" spans="2:9" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
+        <v>59</v>
+      </c>
+      <c r="C19" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
       <c r="G19" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H19" s="15"/>
       <c r="I19" s="22">
@@ -3047,30 +3044,30 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="2:9" s="63" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="60" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="61" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" s="62" t="s">
+    <row r="22" spans="2:9" s="61" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="60" t="s">
-        <v>52</v>
-      </c>
-      <c r="F22" s="60" t="s">
-        <v>74</v>
-      </c>
-      <c r="G22" s="62" t="s">
-        <v>33</v>
-      </c>
-      <c r="H22" s="62" t="s">
+      <c r="E22" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="G22" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="H22" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="I22" s="62" t="s">
-        <v>26</v>
+      <c r="I22" s="60" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3091,16 +3088,16 @@
     </row>
     <row r="24" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
+        <v>60</v>
+      </c>
+      <c r="C24" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="66"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="66"/>
       <c r="G24" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H24" s="15"/>
       <c r="I24" s="22">
@@ -3109,16 +3106,16 @@
     </row>
     <row r="25" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
+        <v>61</v>
+      </c>
+      <c r="C25" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="66"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="66"/>
       <c r="G25" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H25" s="15"/>
       <c r="I25" s="22">
@@ -3161,28 +3158,28 @@
     </row>
     <row r="28" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="40" t="s">
-        <v>51</v>
+        <v>47</v>
+      </c>
+      <c r="C28" s="38" t="s">
+        <v>50</v>
       </c>
       <c r="D28" s="21" t="s">
         <v>24</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H28" s="21" t="s">
         <v>25</v>
       </c>
       <c r="I28" s="21" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3203,16 +3200,16 @@
     </row>
     <row r="30" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
+        <v>62</v>
+      </c>
+      <c r="C30" s="65" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" s="66"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="66"/>
       <c r="G30" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H30" s="15"/>
       <c r="I30" s="22">
@@ -3256,28 +3253,28 @@
     </row>
     <row r="34" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C34" s="40" t="s">
-        <v>55</v>
+        <v>48</v>
+      </c>
+      <c r="C34" s="38" t="s">
+        <v>54</v>
       </c>
       <c r="D34" s="21" t="s">
         <v>24</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G34" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H34" s="21" t="s">
         <v>25</v>
       </c>
       <c r="I34" s="21" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3298,16 +3295,16 @@
     </row>
     <row r="36" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C36" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="D36" s="38"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38"/>
+        <v>63</v>
+      </c>
+      <c r="C36" s="65" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="66"/>
       <c r="G36" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H36" s="15"/>
       <c r="I36" s="22">
@@ -3316,16 +3313,16 @@
     </row>
     <row r="37" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C37" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="D37" s="38"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38"/>
+        <v>64</v>
+      </c>
+      <c r="C37" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="D37" s="66"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="66"/>
       <c r="G37" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H37" s="15"/>
       <c r="I37" s="22">
@@ -4297,17 +4294,17 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C18:F18"/>
     <mergeCell ref="C36:F36"/>
     <mergeCell ref="C37:F37"/>
     <mergeCell ref="C19:F19"/>
     <mergeCell ref="C24:F24"/>
     <mergeCell ref="C25:F25"/>
     <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C18:F18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4320,8 +4317,8 @@
   </sheetPr>
   <dimension ref="B1:I997"/>
   <sheetViews>
-    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15:I15"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4359,7 +4356,7 @@
     </row>
     <row r="4" spans="2:9" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="29">
         <v>4</v>
@@ -4368,7 +4365,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="31">
         <v>1</v>
@@ -4381,12 +4378,12 @@
       </c>
       <c r="I4" s="32">
         <f>SUM(D4,E4:F4,G4,H4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="2:9" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" s="29">
         <v>2</v>
@@ -4413,24 +4410,24 @@
     </row>
     <row r="6" spans="2:9" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="C6" s="64">
+        <v>84</v>
+      </c>
+      <c r="C6" s="62">
         <v>4</v>
       </c>
-      <c r="D6" s="66">
+      <c r="D6" s="64">
         <v>1</v>
       </c>
-      <c r="E6" s="66">
+      <c r="E6" s="64">
         <v>1</v>
       </c>
-      <c r="F6" s="65">
+      <c r="F6" s="63">
         <v>0</v>
       </c>
-      <c r="G6" s="66">
+      <c r="G6" s="64">
         <v>1</v>
       </c>
-      <c r="H6" s="66">
+      <c r="H6" s="64">
         <v>1</v>
       </c>
       <c r="I6" s="32">
@@ -4440,24 +4437,24 @@
     </row>
     <row r="7" spans="2:9" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" s="64">
+        <v>59</v>
+      </c>
+      <c r="C7" s="62">
         <v>2</v>
       </c>
-      <c r="D7" s="66">
+      <c r="D7" s="64">
         <v>1</v>
       </c>
-      <c r="E7" s="65">
+      <c r="E7" s="63">
         <v>0</v>
       </c>
-      <c r="F7" s="65">
+      <c r="F7" s="63">
         <v>0</v>
       </c>
-      <c r="G7" s="65">
+      <c r="G7" s="63">
         <v>0</v>
       </c>
-      <c r="H7" s="66">
+      <c r="H7" s="64">
         <v>1</v>
       </c>
       <c r="I7" s="32">
@@ -4467,24 +4464,24 @@
     </row>
     <row r="8" spans="2:9" s="12" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B8" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="64">
+        <v>58</v>
+      </c>
+      <c r="C8" s="62">
         <v>3</v>
       </c>
-      <c r="D8" s="66">
+      <c r="D8" s="64">
         <v>1</v>
       </c>
-      <c r="E8" s="65">
+      <c r="E8" s="63">
         <v>0</v>
       </c>
-      <c r="F8" s="66">
+      <c r="F8" s="64">
         <v>1</v>
       </c>
-      <c r="G8" s="66">
+      <c r="G8" s="64">
         <v>1</v>
       </c>
-      <c r="H8" s="65">
+      <c r="H8" s="63">
         <v>0</v>
       </c>
       <c r="I8" s="32">
@@ -4494,24 +4491,24 @@
     </row>
     <row r="9" spans="2:9" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="64">
+        <v>59</v>
+      </c>
+      <c r="C9" s="62">
         <v>2</v>
       </c>
-      <c r="D9" s="65">
+      <c r="D9" s="63">
         <v>0</v>
       </c>
-      <c r="E9" s="66">
+      <c r="E9" s="64">
         <v>1</v>
       </c>
-      <c r="F9" s="66">
+      <c r="F9" s="64">
         <v>1</v>
       </c>
-      <c r="G9" s="65">
+      <c r="G9" s="63">
         <v>0</v>
       </c>
-      <c r="H9" s="65">
+      <c r="H9" s="63">
         <v>0</v>
       </c>
       <c r="I9" s="32">
@@ -4521,24 +4518,24 @@
     </row>
     <row r="10" spans="2:9" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="64">
+        <v>60</v>
+      </c>
+      <c r="C10" s="62">
         <v>4</v>
       </c>
-      <c r="D10" s="65">
+      <c r="D10" s="63">
         <v>0</v>
       </c>
-      <c r="E10" s="66">
+      <c r="E10" s="64">
         <v>1</v>
       </c>
-      <c r="F10" s="66">
+      <c r="F10" s="64">
         <v>1</v>
       </c>
-      <c r="G10" s="66">
+      <c r="G10" s="64">
         <v>1</v>
       </c>
-      <c r="H10" s="66">
+      <c r="H10" s="64">
         <v>1</v>
       </c>
       <c r="I10" s="32">
@@ -4548,24 +4545,24 @@
     </row>
     <row r="11" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="64">
+        <v>61</v>
+      </c>
+      <c r="C11" s="62">
         <v>2</v>
       </c>
-      <c r="D11" s="66">
+      <c r="D11" s="64">
         <v>1</v>
       </c>
-      <c r="E11" s="65">
+      <c r="E11" s="63">
         <v>0</v>
       </c>
-      <c r="F11" s="66">
+      <c r="F11" s="64">
         <v>1</v>
       </c>
-      <c r="G11" s="65">
+      <c r="G11" s="63">
         <v>0</v>
       </c>
-      <c r="H11" s="65">
+      <c r="H11" s="63">
         <v>0</v>
       </c>
       <c r="I11" s="32">
@@ -4575,24 +4572,24 @@
     </row>
     <row r="12" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="64">
+        <v>62</v>
+      </c>
+      <c r="C12" s="62">
         <v>1</v>
       </c>
-      <c r="D12" s="65">
+      <c r="D12" s="63">
         <v>0</v>
       </c>
-      <c r="E12" s="66">
+      <c r="E12" s="64">
         <v>1</v>
       </c>
-      <c r="F12" s="65">
+      <c r="F12" s="63">
         <v>0</v>
       </c>
-      <c r="G12" s="65">
+      <c r="G12" s="63">
         <v>0</v>
       </c>
-      <c r="H12" s="65">
+      <c r="H12" s="63">
         <v>0</v>
       </c>
       <c r="I12" s="32">
@@ -4602,24 +4599,24 @@
     </row>
     <row r="13" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="64">
+        <v>63</v>
+      </c>
+      <c r="C13" s="62">
         <v>5</v>
       </c>
-      <c r="D13" s="66">
+      <c r="D13" s="64">
         <v>1</v>
       </c>
-      <c r="E13" s="66">
+      <c r="E13" s="64">
         <v>1</v>
       </c>
-      <c r="F13" s="66">
+      <c r="F13" s="64">
         <v>1</v>
       </c>
-      <c r="G13" s="66">
+      <c r="G13" s="64">
         <v>1</v>
       </c>
-      <c r="H13" s="66">
+      <c r="H13" s="64">
         <v>1</v>
       </c>
       <c r="I13" s="32">
@@ -4629,24 +4626,24 @@
     </row>
     <row r="14" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" s="64">
+        <v>63</v>
+      </c>
+      <c r="C14" s="62">
         <v>3</v>
       </c>
-      <c r="D14" s="65">
+      <c r="D14" s="63">
         <v>0</v>
       </c>
-      <c r="E14" s="66">
+      <c r="E14" s="64">
         <v>1</v>
       </c>
-      <c r="F14" s="65">
+      <c r="F14" s="63">
         <v>0</v>
       </c>
-      <c r="G14" s="66">
+      <c r="G14" s="64">
         <v>1</v>
       </c>
-      <c r="H14" s="66">
+      <c r="H14" s="64">
         <v>1</v>
       </c>
       <c r="I14" s="32">
@@ -4670,22 +4667,22 @@
       </c>
       <c r="E17" s="27">
         <f>D17-SUM(E4:E5)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F17" s="27">
         <f>E17-SUM(F4:F5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G17" s="27">
         <f>F17-SUM(G4:G5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H17" s="27">
         <f>G17-SUM(H4:H5)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="28" t="s">
         <v>22</v>
       </c>
